--- a/FourthLab/Result.xlsx
+++ b/FourthLab/Result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,40 @@
       <c r="G1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -485,108 +515,799 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>6</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(4, 6)</t>
+          <t>(1, 2)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(1, 4, 6)</t>
+          <t>(3, 4)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>(1, 2)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(2, 1, 4, 6)</t>
+          <t>(6, 7)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>(3, 4)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>(1, 2)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(3, 5)</t>
+          <t>(8, 9)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(2, 1, 4, 6)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>(6, 7)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>(3, 4)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1, 2)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>(11, 14)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>(8, 9)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>(6, 7)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(3, 4)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1, 2)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(1, 2, 11, 14)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>(8, 9)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>(6, 7)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>(3, 4)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(3, 4, 1, 2, 11, 14)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>(8, 9)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>(6, 7)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>(13, 15)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>(3, 4, 1, 2, 11, 14)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>(8, 9)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(6, 7)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>(3, 4, 1, 2, 11, 14, 13, 15)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>(8, 9)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>(6, 7)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>(6, 7, 8, 9)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>(3, 4, 1, 2, 11, 14, 13, 15)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>(10, 3, 4, 1, 2, 11, 14, 13, 15)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>(6, 7, 8, 9)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>(6, 7, 8, 9, 10, 3, 4, 1, 2, 11, 14, 13, 15)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>(5, 12)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>(6, 7, 8, 9, 10, 3, 4, 1, 2, 11, 14, 13, 15)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
